--- a/03Acoustic/20250407/round4/FinalResult_retry_mode2_rand0_nelx32_20250506_003821.xlsx
+++ b/03Acoustic/20250407/round4/FinalResult_retry_mode2_rand0_nelx32_20250506_003821.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\TopologyOptimization\03Acoustic\20250407\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\TopologyOptimization\03Acoustic\20250407\round4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C328B51F-F220-4A37-AC84-2BB618B04AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745E88D5-0CB7-4B64-88B3-9544BCC9A7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3640" yWindow="3640" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2223,6 +2223,14 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f>AVERAGE(A2:A31)</f>
+        <v>138.76666666666668</v>
+      </c>
+      <c r="B32">
+        <f>AVERAGE(B2:B31)</f>
+        <v>29.441711356666666</v>
+      </c>
       <c r="R32">
         <f>AVERAGE(R2:R31)</f>
         <v>0.71425229260259571</v>
